--- a/excels/Trad DMG.xlsx
+++ b/excels/Trad DMG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="543">
   <si>
     <t>quickref</t>
   </si>
@@ -106,13 +106,1555 @@
   </si>
   <si>
     <t>Varita de proyectiles mágicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Rod of the Pact Keeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Wand of the War Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Rod of the Pact Keeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Wand of the War Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Rod of the Pact Keeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Wand of the War Mage</t>
+  </si>
+  <si>
+    <t>Airship</t>
+  </si>
+  <si>
+    <t>Alchemy Jug</t>
+  </si>
+  <si>
+    <t>Alexandrite</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Amulet of Health</t>
+  </si>
+  <si>
+    <t>Amulet of Proof against Detection and Location</t>
+  </si>
+  <si>
+    <t>Amulet of the Planes</t>
+  </si>
+  <si>
+    <t>Animated Shield</t>
+  </si>
+  <si>
+    <t>Apparatus of Kwalish</t>
+  </si>
+  <si>
+    <t>Aquamarine</t>
+  </si>
+  <si>
+    <t>Armor of Invulnerability</t>
+  </si>
+  <si>
+    <t>Armor of Vulnerability (Bludgeoning)</t>
+  </si>
+  <si>
+    <t>Armor of Vulnerability (Piercing)</t>
+  </si>
+  <si>
+    <t>Armor of Vulnerability (Slashing)</t>
+  </si>
+  <si>
+    <t>Arrow-Catching Shield</t>
+  </si>
+  <si>
+    <t>Assassin's Blood</t>
+  </si>
+  <si>
+    <t>Axe of the Dwarvish Lords</t>
+  </si>
+  <si>
+    <t>Azurite</t>
+  </si>
+  <si>
+    <t>Bag of Beans</t>
+  </si>
+  <si>
+    <t>Bag of Devouring</t>
+  </si>
+  <si>
+    <t>Bag of Holding</t>
+  </si>
+  <si>
+    <t>Bag of Tricks, Gray</t>
+  </si>
+  <si>
+    <t>Bag of Tricks, Rust</t>
+  </si>
+  <si>
+    <t>Bag of Tricks, Tan</t>
+  </si>
+  <si>
+    <t>Banded Agate</t>
+  </si>
+  <si>
+    <t>Bead of Force</t>
+  </si>
+  <si>
+    <t>Bejeweled ivory drinking horn with gold filigree</t>
+  </si>
+  <si>
+    <t>Belt of Cloud Giant Strength</t>
+  </si>
+  <si>
+    <t>Belt of Dwarvenkind</t>
+  </si>
+  <si>
+    <t>Belt of Fire Giant Strength</t>
+  </si>
+  <si>
+    <t>Belt of Frost Giant Strength</t>
+  </si>
+  <si>
+    <t>Belt of Hill Giant Strength</t>
+  </si>
+  <si>
+    <t>Belt of Stone Giant Strength</t>
+  </si>
+  <si>
+    <t>Belt of Storm Giant Strength</t>
+  </si>
+  <si>
+    <t>Black Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Black Opal</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>Black Sapphire</t>
+  </si>
+  <si>
+    <t>Black velvet mask stitched with silver thread</t>
+  </si>
+  <si>
+    <t>Blackrazor</t>
+  </si>
+  <si>
+    <t>Bloodstone</t>
+  </si>
+  <si>
+    <t>Blue Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Blue Quartz</t>
+  </si>
+  <si>
+    <t>Blue Sapphire</t>
+  </si>
+  <si>
+    <t>Blue Spinel</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>Book of Exalted Deeds</t>
+  </si>
+  <si>
+    <t>Book of Vile Darkness</t>
+  </si>
+  <si>
+    <t>Boots of Elvenkind</t>
+  </si>
+  <si>
+    <t>Boots of Levitation</t>
+  </si>
+  <si>
+    <t>Boots of Speed</t>
+  </si>
+  <si>
+    <t>Boots of the Winterlands</t>
+  </si>
+  <si>
+    <t>Bottle stopper cork embossed with gold leaf and set with amethysts</t>
+  </si>
+  <si>
+    <t>Bowl of Commanding Water Elementals</t>
+  </si>
+  <si>
+    <t>Box of turquoise animal figurines</t>
+  </si>
+  <si>
+    <t>Bracers of Archery</t>
+  </si>
+  <si>
+    <t>Bracers of Defense</t>
+  </si>
+  <si>
+    <t>Brass Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Brass mug with jade inlay</t>
+  </si>
+  <si>
+    <t>Brazier of Commanding Fire Elementals</t>
+  </si>
+  <si>
+    <t>Bronze crown</t>
+  </si>
+  <si>
+    <t>Bronze Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Brooch of Shielding</t>
+  </si>
+  <si>
+    <t>Broom of Flying</t>
+  </si>
+  <si>
+    <t>Burnt Othur Fumes</t>
+  </si>
+  <si>
+    <t>Candle of Invocation</t>
+  </si>
+  <si>
+    <t>Cap of Water Breathing</t>
+  </si>
+  <si>
+    <t>Cape of the Mountebank</t>
+  </si>
+  <si>
+    <t>Carnelian</t>
+  </si>
+  <si>
+    <t>Carpet of Flying, 3 ft. × 5 ft.</t>
+  </si>
+  <si>
+    <t>Carpet of Flying, 4 ft. × 6 ft.</t>
+  </si>
+  <si>
+    <t>Carpet of Flying, 5 ft. × 7 ft.</t>
+  </si>
+  <si>
+    <t>Carpet of Flying, 6 ft. × 9 ft.</t>
+  </si>
+  <si>
+    <t>Carrion Crawler Mucus</t>
+  </si>
+  <si>
+    <t>Carved bone statuette</t>
+  </si>
+  <si>
+    <t>Carved harp of exotic wood with ivory inlay and zircon gems</t>
+  </si>
+  <si>
+    <t>Carved ivory statuette</t>
+  </si>
+  <si>
+    <t>Censer of Controlling Air Elementals</t>
+  </si>
+  <si>
+    <t>Ceremonial electrum dagger with a black pearl in the pommel</t>
+  </si>
+  <si>
+    <t>Chalcedony</t>
+  </si>
+  <si>
+    <t>Chime of Opening</t>
+  </si>
+  <si>
+    <t>Chrysoberyl</t>
+  </si>
+  <si>
+    <t>Chrysoprase</t>
+  </si>
+  <si>
+    <t>Circlet of Blasting</t>
+  </si>
+  <si>
+    <t>Citrine</t>
+  </si>
+  <si>
+    <t>Cloak of Arachnida</t>
+  </si>
+  <si>
+    <t>Cloak of Displacement</t>
+  </si>
+  <si>
+    <t>Cloak of Elvenkind</t>
+  </si>
+  <si>
+    <t>Cloak of Invisibility</t>
+  </si>
+  <si>
+    <t>Cloak of Protection</t>
+  </si>
+  <si>
+    <t>Cloak of the Bat</t>
+  </si>
+  <si>
+    <t>Cloak of the Manta Ray</t>
+  </si>
+  <si>
+    <t>Cloth-of-gold vestments</t>
+  </si>
+  <si>
+    <t>Copper chalice with silver filigree</t>
+  </si>
+  <si>
+    <t>Copper Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>Crystal Ball of Mind Reading</t>
+  </si>
+  <si>
+    <t>Crystal Ball of Telepathy</t>
+  </si>
+  <si>
+    <t>Crystal Ball of True Seeing</t>
+  </si>
+  <si>
+    <t>Cube of Force</t>
+  </si>
+  <si>
+    <t>Cubic Gate</t>
+  </si>
+  <si>
+    <t>Daern's Instant Fortress</t>
+  </si>
+  <si>
+    <t>Dagger of Venom</t>
+  </si>
+  <si>
+    <t>Decanter of Endless Water</t>
+  </si>
+  <si>
+    <t>Deck of Illusions</t>
+  </si>
+  <si>
+    <t>Deck of Many Things</t>
+  </si>
+  <si>
+    <t>Demon Armor</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Dimensional Shackles</t>
+  </si>
+  <si>
+    <t>Driftglobe</t>
+  </si>
+  <si>
+    <t>Drow Poison</t>
+  </si>
+  <si>
+    <t>Dust of Disappearance</t>
+  </si>
+  <si>
+    <t>Dust of Dryness</t>
+  </si>
+  <si>
+    <t>Dust of Sneezing and Choking</t>
+  </si>
+  <si>
+    <t>Dwarven Plate</t>
+  </si>
+  <si>
+    <t>Dwarven Thrower</t>
+  </si>
+  <si>
+    <t>Dynamite (stick)</t>
+  </si>
+  <si>
+    <t>Efreeti Bottle</t>
+  </si>
+  <si>
+    <t>Efreeti Chain</t>
+  </si>
+  <si>
+    <t>Elemental Gem, Blue Sapphire</t>
+  </si>
+  <si>
+    <t>Elemental Gem, Emerald</t>
+  </si>
+  <si>
+    <t>Elemental Gem, Red Corundum</t>
+  </si>
+  <si>
+    <t>Elemental Gem, Yellow Diamond</t>
+  </si>
+  <si>
+    <t>Elixir of Health</t>
+  </si>
+  <si>
+    <t>Elven Chain</t>
+  </si>
+  <si>
+    <t>Embroidered glove set with jewel chips</t>
+  </si>
+  <si>
+    <t>Embroidered silk and velvet mantle set with numerous moonstones</t>
+  </si>
+  <si>
+    <t>Embroidered silk handkerchief</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Essence of Ether</t>
+  </si>
+  <si>
+    <t>Eversmoking Bottle</t>
+  </si>
+  <si>
+    <t>Eye Agate</t>
+  </si>
+  <si>
+    <t>Eye of Vecna</t>
+  </si>
+  <si>
+    <t>Eye patch with a mock eye set in blue sapphire and moonstone</t>
+  </si>
+  <si>
+    <t>Eyes of Charming</t>
+  </si>
+  <si>
+    <t>Eyes of Minute Seeing</t>
+  </si>
+  <si>
+    <t>Eyes of the Eagle</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Bronze Griffon</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Ebony Fly</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Golden Lions</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Ivory Goats</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Marble Elephant</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Obsidian Steed</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Onyx Dog</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Serpentine Owl</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power, Silver Raven</t>
+  </si>
+  <si>
+    <t>Fine gold chain set with a fire opal</t>
+  </si>
+  <si>
+    <t>Fire Opal</t>
+  </si>
+  <si>
+    <t>Folding Boat</t>
+  </si>
+  <si>
+    <t>Fragmentation Grenade</t>
+  </si>
+  <si>
+    <t>Galley</t>
+  </si>
+  <si>
+    <t>Garnet</t>
+  </si>
+  <si>
+    <t>Gem of Brightness</t>
+  </si>
+  <si>
+    <t>Gem of Seeing</t>
+  </si>
+  <si>
+    <t>Glamoured Studded Leather</t>
+  </si>
+  <si>
+    <t>Gloves of Missile Snaring</t>
+  </si>
+  <si>
+    <t>Gloves of Swimming and Climbing</t>
+  </si>
+  <si>
+    <t>Gloves of Thievery</t>
+  </si>
+  <si>
+    <t>Goggles of Night</t>
+  </si>
+  <si>
+    <t>Gold bird cage with electrum filigree</t>
+  </si>
+  <si>
+    <t>Gold circlet set with four aquamarines</t>
+  </si>
+  <si>
+    <t>Gold cup set with emeralds</t>
+  </si>
+  <si>
+    <t>Gold dragon comb set with red garnets as eyes</t>
+  </si>
+  <si>
+    <t>Gold Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Gold jewelry box with platinum filigree</t>
+  </si>
+  <si>
+    <t>Gold locket with a painted portrait inside</t>
+  </si>
+  <si>
+    <t>Gold music box</t>
+  </si>
+  <si>
+    <t>Gold ring set with bloodstones</t>
+  </si>
+  <si>
+    <t>Green Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Gunpowder Horn</t>
+  </si>
+  <si>
+    <t>Gunpowder Keg</t>
+  </si>
+  <si>
+    <t>Hammer of Thunderbolts</t>
+  </si>
+  <si>
+    <t>Hand of Vecna</t>
+  </si>
+  <si>
+    <t>Hat of Disguise</t>
+  </si>
+  <si>
+    <t>Headband of Intellect</t>
+  </si>
+  <si>
+    <t>Helm of Brilliance</t>
+  </si>
+  <si>
+    <t>Helm of Comprehending Languages</t>
+  </si>
+  <si>
+    <t>Helm of Telepathy</t>
+  </si>
+  <si>
+    <t>Helm of Teleportation</t>
+  </si>
+  <si>
+    <t>Hematite</t>
+  </si>
+  <si>
+    <t>Heward's Handy Haversack</t>
+  </si>
+  <si>
+    <t>Horn of Blasting</t>
+  </si>
+  <si>
+    <t>Horn of Valhalla, Brass</t>
+  </si>
+  <si>
+    <t>Horn of Valhalla, Bronze</t>
+  </si>
+  <si>
+    <t>Horn of Valhalla, Iron</t>
+  </si>
+  <si>
+    <t>Horn of Valhalla, Silver</t>
+  </si>
+  <si>
+    <t>Horseshoes of a Zephyr</t>
+  </si>
+  <si>
+    <t>Horseshoes of Speed</t>
+  </si>
+  <si>
+    <t>Immovable Rod</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Anstruth Harp</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Canaith Mandolin</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Cli Lyre</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Doss Lute</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Fochlucan Bandore</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Mac-Fuirmidh Cittern</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards, Ollamh Harp</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Absorption</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Agility</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Awareness</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Fortitude</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Greater Absorption</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Insight</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Intellect</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Leadership</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Mastery</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Protection</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Regeneration</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Reserve</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Strength</t>
+  </si>
+  <si>
+    <t>Ioun Stone, Sustenance</t>
+  </si>
+  <si>
+    <t>Iron Bands of Bilarro</t>
+  </si>
+  <si>
+    <t>Iron Flask</t>
+  </si>
+  <si>
+    <t>Jacinth</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Jade game board with solid gold playing pieces</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Javelin of Lightning</t>
+  </si>
+  <si>
+    <t>Jet</t>
+  </si>
+  <si>
+    <t>Jeweled anklet</t>
+  </si>
+  <si>
+    <t>Jeweled gold crown</t>
+  </si>
+  <si>
+    <t>Jeweled platinum ring</t>
+  </si>
+  <si>
+    <t>Keelboat</t>
+  </si>
+  <si>
+    <t>Keoghtom's Ointment</t>
+  </si>
+  <si>
+    <t>Lantern of Revealing</t>
+  </si>
+  <si>
+    <t>Lapis Lazuli</t>
+  </si>
+  <si>
+    <t>Large gold bracelet</t>
+  </si>
+  <si>
+    <t>Large well-made tapestry</t>
+  </si>
+  <si>
+    <t>Longship</t>
+  </si>
+  <si>
+    <t>Mace of Disruption</t>
+  </si>
+  <si>
+    <t>Mace of Smiting</t>
+  </si>
+  <si>
+    <t>Mace of Terror</t>
+  </si>
+  <si>
+    <t>Malachite</t>
+  </si>
+  <si>
+    <t>Malice</t>
+  </si>
+  <si>
+    <t>Mantle of Spell Resistance</t>
+  </si>
+  <si>
+    <t>Manual of Bodily Health</t>
+  </si>
+  <si>
+    <t>Manual of Clay Golems</t>
+  </si>
+  <si>
+    <t>Manual of Flesh Golems</t>
+  </si>
+  <si>
+    <t>Manual of Gainful Exercise</t>
+  </si>
+  <si>
+    <t>Manual of Iron Golems</t>
+  </si>
+  <si>
+    <t>Manual of Quickness of Action</t>
+  </si>
+  <si>
+    <t>Manual of Stone Golems</t>
+  </si>
+  <si>
+    <t>Medallion of Thoughts</t>
+  </si>
+  <si>
+    <t>Midnight Tears</t>
+  </si>
+  <si>
+    <t>Mirror of Life Trapping</t>
+  </si>
+  <si>
+    <t>Moonblade</t>
+  </si>
+  <si>
+    <t>Moonstone</t>
+  </si>
+  <si>
+    <t>Moss Agate</t>
+  </si>
+  <si>
+    <t>Necklace of Adaptation</t>
+  </si>
+  <si>
+    <t>Necklace of Fireballs</t>
+  </si>
+  <si>
+    <t>Necklace of Prayer Beads</t>
+  </si>
+  <si>
+    <t>Necklace string of small pink pearls</t>
+  </si>
+  <si>
+    <t>Nolzur's Marvelous Pigments</t>
+  </si>
+  <si>
+    <t>Oathbow</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>Obsidian statuette with gold fittings and inlay</t>
+  </si>
+  <si>
+    <t>Oil of Etherealness</t>
+  </si>
+  <si>
+    <t>Oil of Sharpness</t>
+  </si>
+  <si>
+    <t>Oil of Slipperiness</t>
+  </si>
+  <si>
+    <t>Oil of Taggit</t>
+  </si>
+  <si>
+    <t>Old masterpiece painting</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Opal</t>
+  </si>
+  <si>
+    <t>Orb of Dragonkind</t>
+  </si>
+  <si>
+    <t>Painted gold child's sarcophagus</t>
+  </si>
+  <si>
+    <t>Painted gold war mask</t>
+  </si>
+  <si>
+    <t>Pair of engraved bone dice</t>
+  </si>
+  <si>
+    <t>Pale Tincture</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Pearl of Power</t>
+  </si>
+  <si>
+    <t>Periapt of Health</t>
+  </si>
+  <si>
+    <t>Periapt of Proof against Poison</t>
+  </si>
+  <si>
+    <t>Periapt of Wound Closure</t>
+  </si>
+  <si>
+    <t>Peridot</t>
+  </si>
+  <si>
+    <t>Philter of Love</t>
+  </si>
+  <si>
+    <t>Pipes of Haunting</t>
+  </si>
+  <si>
+    <t>Pipes of the Sewers</t>
+  </si>
+  <si>
+    <t>Plate Armor of Etherealness</t>
+  </si>
+  <si>
+    <t>Platinum bracelet set with a sapphire</t>
+  </si>
+  <si>
+    <t>Portable Hole</t>
+  </si>
+  <si>
+    <t>Potion of Acid Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Animal Friendship</t>
+  </si>
+  <si>
+    <t>Potion of Clairvoyance</t>
+  </si>
+  <si>
+    <t>Potion of Climbing</t>
+  </si>
+  <si>
+    <t>Potion of Cloud Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Cold Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Diminution</t>
+  </si>
+  <si>
+    <t>Potion of Fire Breath</t>
+  </si>
+  <si>
+    <t>Potion of Fire Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Fire Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Force Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Frost Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Gaseous Form</t>
+  </si>
+  <si>
+    <t>Potion of Growth</t>
+  </si>
+  <si>
+    <t>Potion of Heroism</t>
+  </si>
+  <si>
+    <t>Potion of Hill Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Invulnerability</t>
+  </si>
+  <si>
+    <t>Potion of Lightning Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Longevity</t>
+  </si>
+  <si>
+    <t>Potion of Mind Reading</t>
+  </si>
+  <si>
+    <t>Potion of Necrotic Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Poison</t>
+  </si>
+  <si>
+    <t>Potion of Poison Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Psychic Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Radiant Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Speed</t>
+  </si>
+  <si>
+    <t>Potion of Stone Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Storm Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Thunder Resistance</t>
+  </si>
+  <si>
+    <t>Potion of Water Breathing</t>
+  </si>
+  <si>
+    <t>Purple Worm Poison</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token, Anchor</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token, Bird</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token, Fan</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token, Swan Boat</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token, Tree</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token, Whip</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Quiver of Ehlonna</t>
+  </si>
+  <si>
+    <t>Red Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Rhodochrosite</t>
+  </si>
+  <si>
+    <t>Ring of Acid Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Air Elemental Command</t>
+  </si>
+  <si>
+    <t>Ring of Animal Influence</t>
+  </si>
+  <si>
+    <t>Ring of Cold Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Djinni Summoning</t>
+  </si>
+  <si>
+    <t>Ring of Earth Elemental Command</t>
+  </si>
+  <si>
+    <t>Ring of Evasion</t>
+  </si>
+  <si>
+    <t>Ring of Feather Falling</t>
+  </si>
+  <si>
+    <t>Ring of Fire Elemental Command</t>
+  </si>
+  <si>
+    <t>Ring of Fire Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Force Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Free Action</t>
+  </si>
+  <si>
+    <t>Ring of Invisibility</t>
+  </si>
+  <si>
+    <t>Ring of Jumping</t>
+  </si>
+  <si>
+    <t>Ring of Lightning Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Mind Shielding</t>
+  </si>
+  <si>
+    <t>Ring of Necrotic Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Poison Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Psychic Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Radiant Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Regeneration</t>
+  </si>
+  <si>
+    <t>Ring of Shooting Stars</t>
+  </si>
+  <si>
+    <t>Ring of Spell Storing</t>
+  </si>
+  <si>
+    <t>Ring of Spell Turning</t>
+  </si>
+  <si>
+    <t>Ring of Swimming</t>
+  </si>
+  <si>
+    <t>Ring of Telekinesis</t>
+  </si>
+  <si>
+    <t>Ring of the Ram</t>
+  </si>
+  <si>
+    <t>Ring of Three Wishes</t>
+  </si>
+  <si>
+    <t>Ring of Thunder Resistance</t>
+  </si>
+  <si>
+    <t>Ring of Warmth</t>
+  </si>
+  <si>
+    <t>Ring of Water Elemental Command</t>
+  </si>
+  <si>
+    <t>Ring of Water Walking</t>
+  </si>
+  <si>
+    <t>Ring of X-ray Vision</t>
+  </si>
+  <si>
+    <t>Robe of Eyes</t>
+  </si>
+  <si>
+    <t>Robe of Scintillating Colors</t>
+  </si>
+  <si>
+    <t>Robe of Stars</t>
+  </si>
+  <si>
+    <t>Robe of the Archmagi</t>
+  </si>
+  <si>
+    <t>Robe of Useful Items</t>
+  </si>
+  <si>
+    <t>Rod of Absorption</t>
+  </si>
+  <si>
+    <t>Rod of Alertness</t>
+  </si>
+  <si>
+    <t>Rod of Lordly Might</t>
+  </si>
+  <si>
+    <t>Rod of Resurrection</t>
+  </si>
+  <si>
+    <t>Rod of Rulership</t>
+  </si>
+  <si>
+    <t>Rod of Security</t>
+  </si>
+  <si>
+    <t>Rope of Climbing</t>
+  </si>
+  <si>
+    <t>Rope of Entanglement</t>
+  </si>
+  <si>
+    <t>Rowboat</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Saddle of the Cavalier</t>
+  </si>
+  <si>
+    <t>Sailing Ship</t>
+  </si>
+  <si>
+    <t>Sardonyx</t>
+  </si>
+  <si>
+    <t>Scarab of Protection</t>
+  </si>
+  <si>
+    <t>Scimitar of Speed</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Aberrations</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Beasts</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Celestials</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Elementals</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Fey</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Fiends</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Plants</t>
+  </si>
+  <si>
+    <t>Scroll of Protection from Undead</t>
+  </si>
+  <si>
+    <t>Sending Stones</t>
+  </si>
+  <si>
+    <t>Sentinel Shield</t>
+  </si>
+  <si>
+    <t>Serpent Venom</t>
+  </si>
+  <si>
+    <t>Shield of Missile Attraction</t>
+  </si>
+  <si>
+    <t>Silk robe with gold embroidery</t>
+  </si>
+  <si>
+    <t>Silver and gold brooch</t>
+  </si>
+  <si>
+    <t>Silver chalice set with moonstones</t>
+  </si>
+  <si>
+    <t>Silver Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Silver ewer</t>
+  </si>
+  <si>
+    <t>Silver necklace with a gemstone pendant</t>
+  </si>
+  <si>
+    <t>Silver-plated steel longsword with jet set in hilt</t>
+  </si>
+  <si>
+    <t>Slippers of Spider Climbing</t>
+  </si>
+  <si>
+    <t>Small gold bracelet</t>
+  </si>
+  <si>
+    <t>Small gold idol</t>
+  </si>
+  <si>
+    <t>Small gold statuette set with rubies</t>
+  </si>
+  <si>
+    <t>Small mirror set in a painted wooden frame</t>
+  </si>
+  <si>
+    <t>Smoke Grenade</t>
+  </si>
+  <si>
+    <t>Sovereign Glue</t>
+  </si>
+  <si>
+    <t>Spellguard Shield</t>
+  </si>
+  <si>
+    <t>Sphere of Annihilation</t>
+  </si>
+  <si>
+    <t>Spinel</t>
+  </si>
+  <si>
+    <t>Staff of Charming</t>
+  </si>
+  <si>
+    <t>Staff of Fire</t>
+  </si>
+  <si>
+    <t>Staff of Frost</t>
+  </si>
+  <si>
+    <t>Staff of Healing</t>
+  </si>
+  <si>
+    <t>Staff of Power</t>
+  </si>
+  <si>
+    <t>Staff of Striking</t>
+  </si>
+  <si>
+    <t>Staff of Swarming Insects</t>
+  </si>
+  <si>
+    <t>Staff of the Adder</t>
+  </si>
+  <si>
+    <t>Staff of the Magi</t>
+  </si>
+  <si>
+    <t>Staff of the Python</t>
+  </si>
+  <si>
+    <t>Staff of the Woodlands</t>
+  </si>
+  <si>
+    <t>Staff of Thunder and Lightning</t>
+  </si>
+  <si>
+    <t>Staff of Withering</t>
+  </si>
+  <si>
+    <t>Star rose quartz</t>
+  </si>
+  <si>
+    <t>Star Ruby</t>
+  </si>
+  <si>
+    <t>Star Sapphire</t>
+  </si>
+  <si>
+    <t>Stone of Controlling Earth Elementals</t>
+  </si>
+  <si>
+    <t>Stone of Good Luck</t>
+  </si>
+  <si>
+    <t>Sun Blade</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Answerer)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Back Talker)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Concluder)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Last Quip)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Rebutter)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Replier)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Retorter)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Scather)</t>
+  </si>
+  <si>
+    <t>Sword of Answering (Squelcher)</t>
+  </si>
+  <si>
+    <t>Sword of Kas</t>
+  </si>
+  <si>
+    <t>Talisman of Pure Good</t>
+  </si>
+  <si>
+    <t>Talisman of the Sphere</t>
+  </si>
+  <si>
+    <t>Talisman of Ultimate Evil</t>
+  </si>
+  <si>
+    <t>Tentacle Rod</t>
+  </si>
+  <si>
+    <t>Tiger Eye</t>
+  </si>
+  <si>
+    <t>Tome of Clear Thought</t>
+  </si>
+  <si>
+    <t>Tome of Leadership and Influence</t>
+  </si>
+  <si>
+    <t>Tome of the Stilled Tongue</t>
+  </si>
+  <si>
+    <t>Tome of Understanding</t>
+  </si>
+  <si>
+    <t>Topaz</t>
+  </si>
+  <si>
+    <t>Torpor</t>
+  </si>
+  <si>
+    <t>Tourmaline</t>
+  </si>
+  <si>
+    <t>Trident of Fish Command</t>
+  </si>
+  <si>
+    <t>Truth Serum</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>Universal Solvent</t>
+  </si>
+  <si>
+    <t>Wand of Binding</t>
+  </si>
+  <si>
+    <t>Wand of Enemy Detection</t>
+  </si>
+  <si>
+    <t>Wand of Fear</t>
+  </si>
+  <si>
+    <t>Wand of Fireballs</t>
+  </si>
+  <si>
+    <t>Wand of Lightning Bolts</t>
+  </si>
+  <si>
+    <t>Wand of Magic Detection</t>
+  </si>
+  <si>
+    <t>Wand of Orcus</t>
+  </si>
+  <si>
+    <t>Wand of Paralysis</t>
+  </si>
+  <si>
+    <t>Wand of Polymorph</t>
+  </si>
+  <si>
+    <t>Wand of Secrets</t>
+  </si>
+  <si>
+    <t>Wand of Web</t>
+  </si>
+  <si>
+    <t>Wand of Wonder</t>
+  </si>
+  <si>
+    <t>Warship</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Well of Many Worlds</t>
+  </si>
+  <si>
+    <t>Whelm</t>
+  </si>
+  <si>
+    <t>White Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Wind Fan</t>
+  </si>
+  <si>
+    <t>Winged Boots</t>
+  </si>
+  <si>
+    <t>Wings of Flying</t>
+  </si>
+  <si>
+    <t>Wyvern Poison</t>
+  </si>
+  <si>
+    <t>Yellow Sapphire</t>
+  </si>
+  <si>
+    <t>Zircon</t>
+  </si>
+  <si>
+    <t>Armor of Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Vulnerability</t>
+  </si>
+  <si>
+    <t>Bag of Tricks</t>
+  </si>
+  <si>
+    <t>Belt of Giant Strength</t>
+  </si>
+  <si>
+    <t>Carpet of Flying</t>
+  </si>
+  <si>
+    <t>Crystal Ball (Legendary Version)</t>
+  </si>
+  <si>
+    <t>Dragon Scale Mail</t>
+  </si>
+  <si>
+    <t>Elemental Gem</t>
+  </si>
+  <si>
+    <t>Figurine of Wondrous Power</t>
+  </si>
+  <si>
+    <t>Horn of Valhalla</t>
+  </si>
+  <si>
+    <t>Instrument of the Bards</t>
+  </si>
+  <si>
+    <t>Ioun Stone</t>
+  </si>
+  <si>
+    <t>Manual of Golems</t>
+  </si>
+  <si>
+    <t>Potion of Giant Strength</t>
+  </si>
+  <si>
+    <t>Potion of Resistance</t>
+  </si>
+  <si>
+    <t>Quaal's Feather Token</t>
+  </si>
+  <si>
+    <t>Ring of Elemental Command</t>
+  </si>
+  <si>
+    <t>Ring of Resistance</t>
+  </si>
+  <si>
+    <t>Scroll of Protection</t>
+  </si>
+  <si>
+    <t>Sword of Answering</t>
+  </si>
+  <si>
+    <t>Antimatter Rifle</t>
+  </si>
+  <si>
+    <t>Automatic Pistol</t>
+  </si>
+  <si>
+    <t>Automatic Rifle</t>
+  </si>
+  <si>
+    <t>Energy Cell</t>
+  </si>
+  <si>
+    <t>Hunting Rifle</t>
+  </si>
+  <si>
+    <t>Laser Pistol</t>
+  </si>
+  <si>
+    <t>Laser Rifle</t>
+  </si>
+  <si>
+    <t>Modern Bullet</t>
+  </si>
+  <si>
+    <t>Modern Bullets (10)</t>
+  </si>
+  <si>
+    <t>Musket</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Renaissance Bullet</t>
+  </si>
+  <si>
+    <t>Renaissance Bullets (10)</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +1665,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -170,6 +1720,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,16 +2092,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
     <col min="4" max="4" width="51.25" customWidth="1"/>
     <col min="5" max="5" width="49.25" customWidth="1"/>
   </cols>
@@ -565,103 +2116,2678 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C326" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C333" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>20</v>
+      </c>
+      <c r="C336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C338" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C350" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C351" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C353" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C387" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C389" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C390" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C391" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C392" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C394" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C396" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C398" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C449" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C450" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C451" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C452" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C453" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C454" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C455" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C456" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C457" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C458" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C459" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C460" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C461" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C462" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C464" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C497" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C498" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C499" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C500" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C501" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C502" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C503" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C504" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C506" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C507" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C508" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C509" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C510" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C511" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C512" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>507</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1">
+    <sortState ref="B2:C527">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="188" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/excels/Trad DMG.xlsx
+++ b/excels/Trad DMG.xlsx
@@ -8,18 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
-    <sheet name="item" sheetId="3" r:id="rId2"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId3"/>
+    <sheet name="baseitem" sheetId="5" r:id="rId2"/>
+    <sheet name="item" sheetId="3" r:id="rId3"/>
+    <sheet name="class" sheetId="4" r:id="rId4"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">baseitem!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">item!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="551">
   <si>
     <t>quickref</t>
   </si>
@@ -1648,6 +1651,30 @@
   </si>
   <si>
     <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Clérigo</t>
+  </si>
+  <si>
+    <t>Cleric</t>
+  </si>
+  <si>
+    <t>Paladín</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Death Domain</t>
+  </si>
+  <si>
+    <t>Dominio de la Muerte</t>
+  </si>
+  <si>
+    <t>Rompejuramentos</t>
+  </si>
+  <si>
+    <t>Oathbreaker</t>
   </si>
 </sst>
 </file>
@@ -2092,10 +2119,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D527"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D512"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2193,2598 +2323,2523 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>46</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>509</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>529</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>530</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>54</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>510</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>64</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>511</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
       <c r="C64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>102</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>512</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>130</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>513</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>143</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>514</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>153</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>515</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>531</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>170</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>516</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>216</v>
+        <v>517</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>517</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
-        <v>223</v>
+        <v>518</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>532</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>518</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>229</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>519</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
-        <v>533</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>534</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>269</v>
+        <v>520</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
-        <v>535</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>536</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
-        <v>537</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
       <c r="C315" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>13</v>
+      </c>
       <c r="C320" t="s">
-        <v>321</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
       <c r="C322" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>20</v>
+      </c>
       <c r="C325" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
-        <v>10</v>
-      </c>
       <c r="C326" t="s">
-        <v>9</v>
+        <v>333</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
-        <v>521</v>
+        <v>337</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
-        <v>13</v>
-      </c>
       <c r="C331" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
-        <v>12</v>
-      </c>
       <c r="C333" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
-        <v>332</v>
+        <v>522</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
-        <v>20</v>
-      </c>
       <c r="C336" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>17</v>
+      </c>
       <c r="C339" t="s">
-        <v>335</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>19</v>
+      </c>
       <c r="C340" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>22</v>
+      </c>
       <c r="C342" t="s">
-        <v>338</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>341</v>
+        <v>523</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
-        <v>522</v>
+        <v>348</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
-        <v>17</v>
-      </c>
       <c r="C350" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
-        <v>19</v>
-      </c>
       <c r="C351" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
-        <v>22</v>
-      </c>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>24</v>
+      </c>
       <c r="C375" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C377" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C379" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
-        <v>24</v>
-      </c>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
-        <v>526</v>
+        <v>424</v>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C433" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C434" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C435" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C437" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C438" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>26</v>
+      </c>
       <c r="C439" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C440" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C442" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B454" t="s">
-        <v>26</v>
-      </c>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C481" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C482" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C483" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C484" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C485" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C486" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C487" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C488" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C489" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C490" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C491" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C492" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C493" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C494" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>28</v>
+      </c>
       <c r="C495" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C496" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B510" t="s">
-        <v>28</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C521" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C522" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C523" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C524" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C525" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C526" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C527" t="s">
         <v>507</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:C1">
-    <sortState ref="B2:C527">
+    <sortState ref="B2:C512">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -4793,7 +4848,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1"/>
   <sheetViews>

--- a/excels/Trad DMG.xlsx
+++ b/excels/Trad DMG.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="566">
   <si>
     <t>quickref</t>
   </si>
@@ -1675,6 +1675,51 @@
   </si>
   <si>
     <t>Oathbreaker</t>
+  </si>
+  <si>
+    <t>Rifle de antimateria</t>
+  </si>
+  <si>
+    <t>Pistola automática</t>
+  </si>
+  <si>
+    <t>Rifle automático</t>
+  </si>
+  <si>
+    <t>Célula de energía</t>
+  </si>
+  <si>
+    <t>Rifle de caza</t>
+  </si>
+  <si>
+    <t>Pistola láser</t>
+  </si>
+  <si>
+    <t>Rifle láser</t>
+  </si>
+  <si>
+    <t>Balas modernas (10)</t>
+  </si>
+  <si>
+    <t>Mosquete</t>
+  </si>
+  <si>
+    <t>Pistola</t>
+  </si>
+  <si>
+    <t>Bala renacentista</t>
+  </si>
+  <si>
+    <t>Balas renacentistas (10)</t>
+  </si>
+  <si>
+    <t>Bala moderna</t>
+  </si>
+  <si>
+    <t>Revólver</t>
+  </si>
+  <si>
+    <t>Escopeta</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2167,7 @@
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2140,76 +2185,121 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
       <c r="C2" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
       <c r="C3" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
       <c r="C4" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>554</v>
+      </c>
       <c r="C5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
       <c r="C6" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>556</v>
+      </c>
       <c r="C7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>557</v>
+      </c>
       <c r="C8" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>563</v>
+      </c>
       <c r="C9" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>558</v>
+      </c>
       <c r="C10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>559</v>
+      </c>
       <c r="C11" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>560</v>
+      </c>
       <c r="C12" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>561</v>
+      </c>
       <c r="C13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>562</v>
+      </c>
       <c r="C14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>564</v>
+      </c>
       <c r="C15" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>565</v>
+      </c>
       <c r="C16" t="s">
         <v>542</v>
       </c>
